--- a/Pattern/patternlist.xlsx
+++ b/Pattern/patternlist.xlsx
@@ -73,8 +73,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -83,12 +85,14 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -417,123 +421,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:5">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1">
         <v>0</v>
       </c>
       <c r="E1">
-        <v>1</v>
-      </c>
-      <c r="F1">
-        <v>0</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-      <c r="I1">
-        <v>0</v>
-      </c>
-      <c r="J1">
-        <v>1</v>
-      </c>
-      <c r="K1">
-        <v>0</v>
-      </c>
-      <c r="L1">
-        <v>1</v>
-      </c>
-      <c r="M1">
-        <v>1</v>
-      </c>
-      <c r="N1">
-        <v>0</v>
-      </c>
-      <c r="O1">
-        <v>1</v>
-      </c>
-      <c r="P1">
-        <v>1</v>
-      </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -542,311 +474,62 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <f>-1</f>
+        <v>-1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="P7">
-        <v>1</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Pattern/patternlist.xlsx
+++ b/Pattern/patternlist.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black\Documents\DensanProject\Pattern\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="15525" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -96,6 +101,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -424,12 +437,12 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>0</v>
       </c>
@@ -446,7 +459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -463,7 +476,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -480,7 +493,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -497,7 +510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -514,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1</v>
       </c>
@@ -535,7 +548,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -552,9 +565,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
@@ -571,7 +584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>0</v>
       </c>
@@ -588,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -605,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>0</v>
       </c>
@@ -622,7 +635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1</v>
       </c>
@@ -639,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>0</v>
       </c>
